--- a/excelplay_ex.xlsx
+++ b/excelplay_ex.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
   <si>
     <t>copy</t>
   </si>
   <si>
-    <t>i:\vera6 2012\def\TH01</t>
-  </si>
-  <si>
-    <t>i:\vera6 2012\def\TH02</t>
-  </si>
-  <si>
     <t>COPY S01.tif debla.tif</t>
   </si>
   <si>
@@ -512,6 +506,18 @@
   </si>
   <si>
     <t>f:\poly\TH\TH01\cache</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>f:\poly\TH\TH03</t>
+  </si>
+  <si>
+    <t>rmdir</t>
+  </si>
+  <si>
+    <t>move</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -564,25 +570,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,844 +877,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="P1" s="5">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" s="1"/>
+      <c r="E2" t="s">
         <v>162</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="6">
-        <v>1</v>
-      </c>
-      <c r="N1" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="R5" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>117</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>117</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="2" t="s">
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>92</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>118</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>92</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>118</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
         <v>46</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:18">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>119</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I8" t="s">
         <v>119</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
         <v>47</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:18">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>120</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>120</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:18">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>121</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I10" t="s">
         <v>121</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:18">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>122</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" t="s">
         <v>122</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s">
         <v>50</v>
       </c>
-      <c r="N9" t="s">
+      <c r="R11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:18">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>97</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I12" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s">
+      <c r="R12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:18">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>98</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>124</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>98</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I13" t="s">
         <v>124</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:18">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>99</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>125</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>99</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I14" t="s">
         <v>125</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
         <v>53</v>
       </c>
-      <c r="N12" t="s">
+      <c r="R14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:18">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>100</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>126</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>100</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" t="s">
         <v>126</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
         <v>54</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:18">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>101</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>127</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>127</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P16" t="s">
         <v>55</v>
       </c>
-      <c r="N14" t="s">
+      <c r="R16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="2:18">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>102</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>128</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" t="s">
         <v>128</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P17" t="s">
         <v>56</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="2:18">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>103</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>129</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P18" t="s">
         <v>57</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="2:18">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>130</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>104</v>
       </c>
-      <c r="I17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" t="s">
         <v>58</v>
       </c>
-      <c r="N17" t="s">
+      <c r="R19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="20" spans="2:18">
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H20" t="s">
         <v>105</v>
       </c>
-      <c r="I18" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" t="s">
         <v>59</v>
       </c>
-      <c r="N18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="R20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>132</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>106</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>147</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
         <v>107</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>133</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>107</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I22" t="s">
         <v>148</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P22" t="s">
         <v>61</v>
       </c>
-      <c r="N20" t="s">
+      <c r="R22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
+    <row r="23" spans="2:18">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
         <v>108</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>134</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>108</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P23" t="s">
         <v>62</v>
       </c>
-      <c r="N21" t="s">
+      <c r="R23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="24" spans="2:18">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
         <v>109</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>135</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>109</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I24" t="s">
         <v>150</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P24" t="s">
         <v>63</v>
       </c>
-      <c r="N22" t="s">
+      <c r="R24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
+    <row r="25" spans="2:18">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>110</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>110</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I25" t="s">
         <v>151</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P25" t="s">
         <v>64</v>
       </c>
-      <c r="N23" t="s">
+      <c r="R25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
+    <row r="26" spans="2:18">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
         <v>111</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>137</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>111</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I26" t="s">
         <v>152</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P26" t="s">
         <v>65</v>
       </c>
-      <c r="N24" t="s">
+      <c r="R26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" t="s">
+    <row r="27" spans="2:18">
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>138</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>112</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I27" t="s">
         <v>153</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P27" t="s">
         <v>66</v>
       </c>
-      <c r="N25" t="s">
+      <c r="R27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="28" spans="2:18">
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
         <v>113</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G28" t="s">
         <v>139</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H28" t="s">
         <v>113</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I28" t="s">
         <v>154</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P28" t="s">
         <v>67</v>
       </c>
-      <c r="N26" t="s">
+      <c r="R28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
+    <row r="29" spans="2:18">
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
         <v>114</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>140</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>114</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>155</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P29" t="s">
         <v>68</v>
       </c>
-      <c r="N27" t="s">
+      <c r="R29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" t="s">
+    <row r="30" spans="2:18">
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
         <v>141</v>
       </c>
-      <c r="H28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="I30" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" t="s">
+        <v>69</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" t="s">
         <v>156</v>
       </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="R31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" t="s">
         <v>157</v>
       </c>
-      <c r="L29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="R32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>158</v>
+      </c>
+      <c r="R33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="R34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" t="s">
         <v>139</v>
       </c>
-      <c r="L30" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="C31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" t="s">
-        <v>159</v>
-      </c>
-      <c r="N32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" t="s">
-        <v>160</v>
-      </c>
-      <c r="N33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="N34" t="s">
-        <v>86</v>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/excelplay_ex.xlsx
+++ b/excelplay_ex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>copy</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>noch nicht fertig!</t>
+  </si>
+  <si>
+    <t>STARTPUNKT</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -350,6 +359,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -647,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -705,19 +716,19 @@
       <c r="I2" t="s">
         <v>56</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="V2" t="s">
@@ -728,7 +739,7 @@
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
@@ -1023,6 +1034,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="P13">
         <v>10</v>
